--- a/exp_questions.xlsx
+++ b/exp_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -89,7 +89,7 @@
     <t>How much you associate this item with a particular place?</t>
   </si>
   <si>
-    <t>How Distinctive is this item''s shape?</t>
+    <t>How Distinctive is this item's shape?</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
